--- a/Proyecto/AplicacionPrincipal/bin/Debug/InformeCursos.xlsx
+++ b/Proyecto/AplicacionPrincipal/bin/Debug/InformeCursos.xlsx
@@ -67,7 +67,7 @@
     <font>
       <b/>
       <sz val="16"/>
-      <color rgb="FF2196F3" tint="0"/>
+      <color rgb="FF012E67" tint="0"/>
       <name val="Roboto"/>
     </font>
   </fonts>
